--- a/QA/localization/Localization.xlsx
+++ b/QA/localization/Localization.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBC0B53-5EAE-46BF-A494-5A91514FBEEA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Check list" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +19,84 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Japanese 
+[Home Page]</t>
+  </si>
+  <si>
+    <t>Japanese 
+[My Account Page]</t>
+  </si>
+  <si>
+    <t>Japanese 
+[Cart Page]</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>Colours are appropriate for the target market</t>
+  </si>
+  <si>
+    <t>Phone number formats are properly formatted for the region</t>
+  </si>
+  <si>
+    <t>Currency formats are  handlied properly</t>
+  </si>
+  <si>
+    <t>Text is free of grammatical mistakes</t>
+  </si>
+  <si>
+    <t>Text is properly translated</t>
+  </si>
+  <si>
+    <t>Text is free of character corruption</t>
+  </si>
+  <si>
+    <t>Hyperlinks function properly</t>
+  </si>
+  <si>
+    <t>Hot keys are functional</t>
+  </si>
+  <si>
+    <t>Lists are sorted according to target language and region</t>
+  </si>
+  <si>
+    <t>Entry fields support special characters</t>
+  </si>
+  <si>
+    <t>Localized images are good quality</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Regional 
+Specefication</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +104,84 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,14 +189,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="8">
+    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="5" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="6" builtinId="40"/>
+    <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +574,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="15">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="15">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="16">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="17">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="17">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="17">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="18">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>